--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_0テンプレート.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_0テンプレート.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AC8796-3D8C-4114-A2AA-18B909C74CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA04C77D-AB18-4CF1-B903-98BD880E4E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-10970" windowWidth="38620" windowHeight="21820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="画面" sheetId="2" r:id="rId2"/>
     <sheet name="クラス" sheetId="7" r:id="rId3"/>
     <sheet name="テーブル" sheetId="8" r:id="rId4"/>
-    <sheet name="×" sheetId="6" r:id="rId5"/>
+    <sheet name="フロー" sheetId="9" r:id="rId5"/>
+    <sheet name="×" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -566,13 +567,22 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -592,15 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -608,10 +609,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,8 +728,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="168000"/>
-          <a:ext cx="8976360" cy="6217560"/>
+          <a:off x="0" y="165460"/>
+          <a:ext cx="8896350" cy="6121040"/>
           <a:chOff x="0" y="168000"/>
           <a:chExt cx="8976360" cy="6217560"/>
         </a:xfrm>
@@ -4401,552 +4402,574 @@
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27" t="s">
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27" t="s">
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="27"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>1</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="27"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f xml:space="preserve"> $A50 + 1</f>
         <v>2</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <f t="shared" ref="A52:A57" si="0" xml:space="preserve"> $A51 + 1</f>
         <v>3</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="27"/>
+      <c r="AF52" s="27"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="29"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="29"/>
-      <c r="AD54" s="29"/>
-      <c r="AE54" s="29"/>
-      <c r="AF54" s="29"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="27"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
-      <c r="AE55" s="29"/>
-      <c r="AF55" s="29"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="27"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
-      <c r="AE56" s="29"/>
-      <c r="AF56" s="29"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="27"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29"/>
-      <c r="AE57" s="29"/>
-      <c r="AF57" s="29"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="A42:AF46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="U49:AF49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="U50:AF50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:AF51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
     <mergeCell ref="B54:G54"/>
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:T54"/>
@@ -4963,28 +4986,6 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:T56"/>
     <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="U50:AF50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:AF51"/>
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="A42:AF46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="U49:AF49"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5002,122 +5003,122 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
@@ -5177,376 +5178,376 @@
       <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="36" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="27" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="27"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="27"/>
-      <c r="BC5" s="27"/>
-      <c r="BD5" s="36" t="s">
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37"/>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="38"/>
+      <c r="BE5" s="31"/>
+      <c r="BF5" s="31"/>
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="31"/>
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="31"/>
+      <c r="BK5" s="31"/>
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="31"/>
+      <c r="BO5" s="31"/>
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="31"/>
+      <c r="BR5" s="31"/>
+      <c r="BS5" s="31"/>
+      <c r="BT5" s="31"/>
+      <c r="BU5" s="31"/>
+      <c r="BV5" s="31"/>
+      <c r="BW5" s="31"/>
+      <c r="BX5" s="31"/>
+      <c r="BY5" s="31"/>
+      <c r="BZ5" s="31"/>
+      <c r="CA5" s="31"/>
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="31"/>
+      <c r="CD5" s="31"/>
+      <c r="CE5" s="32"/>
     </row>
     <row r="6" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29"/>
-      <c r="AT6" s="29"/>
-      <c r="AU6" s="29"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="29"/>
-      <c r="AX6" s="29"/>
-      <c r="AY6" s="29"/>
-      <c r="AZ6" s="29"/>
-      <c r="BA6" s="29"/>
-      <c r="BB6" s="29"/>
-      <c r="BC6" s="29"/>
-      <c r="BD6" s="30"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="31"/>
-      <c r="BK6" s="31"/>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="31"/>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="31"/>
-      <c r="BQ6" s="31"/>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="31"/>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="31"/>
-      <c r="BW6" s="31"/>
-      <c r="BX6" s="31"/>
-      <c r="BY6" s="31"/>
-      <c r="BZ6" s="31"/>
-      <c r="CA6" s="31"/>
-      <c r="CB6" s="31"/>
-      <c r="CC6" s="31"/>
-      <c r="CD6" s="31"/>
-      <c r="CE6" s="32"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="27"/>
+      <c r="BB6" s="27"/>
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="33"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="BZ6" s="34"/>
+      <c r="CA6" s="34"/>
+      <c r="CB6" s="34"/>
+      <c r="CC6" s="34"/>
+      <c r="CD6" s="34"/>
+      <c r="CE6" s="35"/>
     </row>
     <row r="7" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <f xml:space="preserve"> $A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="29"/>
-      <c r="BA7" s="29"/>
-      <c r="BB7" s="29"/>
-      <c r="BC7" s="29"/>
-      <c r="BD7" s="30"/>
-      <c r="BE7" s="31"/>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="31"/>
-      <c r="BN7" s="31"/>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="31"/>
-      <c r="BQ7" s="31"/>
-      <c r="BR7" s="31"/>
-      <c r="BS7" s="31"/>
-      <c r="BT7" s="31"/>
-      <c r="BU7" s="31"/>
-      <c r="BV7" s="31"/>
-      <c r="BW7" s="31"/>
-      <c r="BX7" s="31"/>
-      <c r="BY7" s="31"/>
-      <c r="BZ7" s="31"/>
-      <c r="CA7" s="31"/>
-      <c r="CB7" s="31"/>
-      <c r="CC7" s="31"/>
-      <c r="CD7" s="31"/>
-      <c r="CE7" s="32"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="27"/>
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="27"/>
+      <c r="BC7" s="27"/>
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
+      <c r="BL7" s="34"/>
+      <c r="BM7" s="34"/>
+      <c r="BN7" s="34"/>
+      <c r="BO7" s="34"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="34"/>
+      <c r="BS7" s="34"/>
+      <c r="BT7" s="34"/>
+      <c r="BU7" s="34"/>
+      <c r="BV7" s="34"/>
+      <c r="BW7" s="34"/>
+      <c r="BX7" s="34"/>
+      <c r="BY7" s="34"/>
+      <c r="BZ7" s="34"/>
+      <c r="CA7" s="34"/>
+      <c r="CB7" s="34"/>
+      <c r="CC7" s="34"/>
+      <c r="CD7" s="34"/>
+      <c r="CE7" s="35"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="29">
         <f xml:space="preserve"> $A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="29"/>
-      <c r="AV8" s="29"/>
-      <c r="AW8" s="29"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="29"/>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="30"/>
-      <c r="BE8" s="31"/>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="31"/>
-      <c r="BH8" s="31"/>
-      <c r="BI8" s="31"/>
-      <c r="BJ8" s="31"/>
-      <c r="BK8" s="31"/>
-      <c r="BL8" s="31"/>
-      <c r="BM8" s="31"/>
-      <c r="BN8" s="31"/>
-      <c r="BO8" s="31"/>
-      <c r="BP8" s="31"/>
-      <c r="BQ8" s="31"/>
-      <c r="BR8" s="31"/>
-      <c r="BS8" s="31"/>
-      <c r="BT8" s="31"/>
-      <c r="BU8" s="31"/>
-      <c r="BV8" s="31"/>
-      <c r="BW8" s="31"/>
-      <c r="BX8" s="31"/>
-      <c r="BY8" s="31"/>
-      <c r="BZ8" s="31"/>
-      <c r="CA8" s="31"/>
-      <c r="CB8" s="31"/>
-      <c r="CC8" s="31"/>
-      <c r="CD8" s="31"/>
-      <c r="CE8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="27"/>
+      <c r="AY8" s="27"/>
+      <c r="AZ8" s="27"/>
+      <c r="BA8" s="27"/>
+      <c r="BB8" s="27"/>
+      <c r="BC8" s="27"/>
+      <c r="BD8" s="33"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="34"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="34"/>
+      <c r="BN8" s="34"/>
+      <c r="BO8" s="34"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="34"/>
+      <c r="BR8" s="34"/>
+      <c r="BS8" s="34"/>
+      <c r="BT8" s="34"/>
+      <c r="BU8" s="34"/>
+      <c r="BV8" s="34"/>
+      <c r="BW8" s="34"/>
+      <c r="BX8" s="34"/>
+      <c r="BY8" s="34"/>
+      <c r="BZ8" s="34"/>
+      <c r="CA8" s="34"/>
+      <c r="CB8" s="34"/>
+      <c r="CC8" s="34"/>
+      <c r="CD8" s="34"/>
+      <c r="CE8" s="35"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -5663,1151 +5664,1147 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="36" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="27" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27" t="s">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27" t="s">
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27" t="s">
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="27"/>
-      <c r="AZ11" s="27"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="27"/>
-      <c r="BC11" s="27"/>
-      <c r="BD11" s="36" t="s">
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BE11" s="37"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="37"/>
-      <c r="BH11" s="37"/>
-      <c r="BI11" s="37"/>
-      <c r="BJ11" s="37"/>
-      <c r="BK11" s="37"/>
-      <c r="BL11" s="37"/>
-      <c r="BM11" s="37"/>
-      <c r="BN11" s="37"/>
-      <c r="BO11" s="37"/>
-      <c r="BP11" s="37"/>
-      <c r="BQ11" s="37"/>
-      <c r="BR11" s="37"/>
-      <c r="BS11" s="37"/>
-      <c r="BT11" s="37"/>
-      <c r="BU11" s="37"/>
-      <c r="BV11" s="37"/>
-      <c r="BW11" s="37"/>
-      <c r="BX11" s="37"/>
-      <c r="BY11" s="37"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="37"/>
-      <c r="CB11" s="37"/>
-      <c r="CC11" s="37"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="38"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="31"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="31"/>
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="32"/>
     </row>
     <row r="12" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="29">
         <v>1</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="29" t="s">
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29" t="s">
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="29"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29"/>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
-      <c r="BK12" s="31"/>
-      <c r="BL12" s="31"/>
-      <c r="BM12" s="31"/>
-      <c r="BN12" s="31"/>
-      <c r="BO12" s="31"/>
-      <c r="BP12" s="31"/>
-      <c r="BQ12" s="31"/>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="31"/>
-      <c r="BT12" s="31"/>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="31"/>
-      <c r="BW12" s="31"/>
-      <c r="BX12" s="31"/>
-      <c r="BY12" s="31"/>
-      <c r="BZ12" s="31"/>
-      <c r="CA12" s="31"/>
-      <c r="CB12" s="31"/>
-      <c r="CC12" s="31"/>
-      <c r="CD12" s="31"/>
-      <c r="CE12" s="32"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
+      <c r="BD12" s="33"/>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="34"/>
+      <c r="BL12" s="34"/>
+      <c r="BM12" s="34"/>
+      <c r="BN12" s="34"/>
+      <c r="BO12" s="34"/>
+      <c r="BP12" s="34"/>
+      <c r="BQ12" s="34"/>
+      <c r="BR12" s="34"/>
+      <c r="BS12" s="34"/>
+      <c r="BT12" s="34"/>
+      <c r="BU12" s="34"/>
+      <c r="BV12" s="34"/>
+      <c r="BW12" s="34"/>
+      <c r="BX12" s="34"/>
+      <c r="BY12" s="34"/>
+      <c r="BZ12" s="34"/>
+      <c r="CA12" s="34"/>
+      <c r="CB12" s="34"/>
+      <c r="CC12" s="34"/>
+      <c r="CD12" s="34"/>
+      <c r="CE12" s="35"/>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="29">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="30"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="31"/>
-      <c r="BN13" s="31"/>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="31"/>
-      <c r="BQ13" s="31"/>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="31"/>
-      <c r="BT13" s="31"/>
-      <c r="BU13" s="31"/>
-      <c r="BV13" s="31"/>
-      <c r="BW13" s="31"/>
-      <c r="BX13" s="31"/>
-      <c r="BY13" s="31"/>
-      <c r="BZ13" s="31"/>
-      <c r="CA13" s="31"/>
-      <c r="CB13" s="31"/>
-      <c r="CC13" s="31"/>
-      <c r="CD13" s="31"/>
-      <c r="CE13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="27"/>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="27"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="34"/>
+      <c r="BF13" s="34"/>
+      <c r="BG13" s="34"/>
+      <c r="BH13" s="34"/>
+      <c r="BI13" s="34"/>
+      <c r="BJ13" s="34"/>
+      <c r="BK13" s="34"/>
+      <c r="BL13" s="34"/>
+      <c r="BM13" s="34"/>
+      <c r="BN13" s="34"/>
+      <c r="BO13" s="34"/>
+      <c r="BP13" s="34"/>
+      <c r="BQ13" s="34"/>
+      <c r="BR13" s="34"/>
+      <c r="BS13" s="34"/>
+      <c r="BT13" s="34"/>
+      <c r="BU13" s="34"/>
+      <c r="BV13" s="34"/>
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="34"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="34"/>
+      <c r="CA13" s="34"/>
+      <c r="CB13" s="34"/>
+      <c r="CC13" s="34"/>
+      <c r="CD13" s="34"/>
+      <c r="CE13" s="35"/>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="29">
         <f t="shared" ref="A14:A16" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="29"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="29"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="29"/>
-      <c r="AX14" s="29"/>
-      <c r="AY14" s="29"/>
-      <c r="AZ14" s="29"/>
-      <c r="BA14" s="29"/>
-      <c r="BB14" s="29"/>
-      <c r="BC14" s="29"/>
-      <c r="BD14" s="30"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="31"/>
-      <c r="BK14" s="31"/>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="31"/>
-      <c r="BN14" s="31"/>
-      <c r="BO14" s="31"/>
-      <c r="BP14" s="31"/>
-      <c r="BQ14" s="31"/>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="31"/>
-      <c r="BT14" s="31"/>
-      <c r="BU14" s="31"/>
-      <c r="BV14" s="31"/>
-      <c r="BW14" s="31"/>
-      <c r="BX14" s="31"/>
-      <c r="BY14" s="31"/>
-      <c r="BZ14" s="31"/>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="31"/>
-      <c r="CC14" s="31"/>
-      <c r="CD14" s="31"/>
-      <c r="CE14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="34"/>
+      <c r="BG14" s="34"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="34"/>
+      <c r="BJ14" s="34"/>
+      <c r="BK14" s="34"/>
+      <c r="BL14" s="34"/>
+      <c r="BM14" s="34"/>
+      <c r="BN14" s="34"/>
+      <c r="BO14" s="34"/>
+      <c r="BP14" s="34"/>
+      <c r="BQ14" s="34"/>
+      <c r="BR14" s="34"/>
+      <c r="BS14" s="34"/>
+      <c r="BT14" s="34"/>
+      <c r="BU14" s="34"/>
+      <c r="BV14" s="34"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="34"/>
+      <c r="BY14" s="34"/>
+      <c r="BZ14" s="34"/>
+      <c r="CA14" s="34"/>
+      <c r="CB14" s="34"/>
+      <c r="CC14" s="34"/>
+      <c r="CD14" s="34"/>
+      <c r="CE14" s="35"/>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="29"/>
-      <c r="AS15" s="29"/>
-      <c r="AT15" s="29"/>
-      <c r="AU15" s="29"/>
-      <c r="AV15" s="29"/>
-      <c r="AW15" s="29"/>
-      <c r="AX15" s="29"/>
-      <c r="AY15" s="29"/>
-      <c r="AZ15" s="29"/>
-      <c r="BA15" s="29"/>
-      <c r="BB15" s="29"/>
-      <c r="BC15" s="29"/>
-      <c r="BD15" s="30"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="31"/>
-      <c r="BN15" s="31"/>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="31"/>
-      <c r="BQ15" s="31"/>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="31"/>
-      <c r="BT15" s="31"/>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="31"/>
-      <c r="BW15" s="31"/>
-      <c r="BX15" s="31"/>
-      <c r="BY15" s="31"/>
-      <c r="BZ15" s="31"/>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="31"/>
-      <c r="CC15" s="31"/>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+      <c r="AW15" s="27"/>
+      <c r="AX15" s="27"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="27"/>
+      <c r="BD15" s="33"/>
+      <c r="BE15" s="34"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="34"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="34"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="34"/>
+      <c r="BL15" s="34"/>
+      <c r="BM15" s="34"/>
+      <c r="BN15" s="34"/>
+      <c r="BO15" s="34"/>
+      <c r="BP15" s="34"/>
+      <c r="BQ15" s="34"/>
+      <c r="BR15" s="34"/>
+      <c r="BS15" s="34"/>
+      <c r="BT15" s="34"/>
+      <c r="BU15" s="34"/>
+      <c r="BV15" s="34"/>
+      <c r="BW15" s="34"/>
+      <c r="BX15" s="34"/>
+      <c r="BY15" s="34"/>
+      <c r="BZ15" s="34"/>
+      <c r="CA15" s="34"/>
+      <c r="CB15" s="34"/>
+      <c r="CC15" s="34"/>
+      <c r="CD15" s="34"/>
+      <c r="CE15" s="35"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="29"/>
-      <c r="AT16" s="29"/>
-      <c r="AU16" s="29"/>
-      <c r="AV16" s="29"/>
-      <c r="AW16" s="29"/>
-      <c r="AX16" s="29"/>
-      <c r="AY16" s="29"/>
-      <c r="AZ16" s="29"/>
-      <c r="BA16" s="29"/>
-      <c r="BB16" s="29"/>
-      <c r="BC16" s="29"/>
-      <c r="BD16" s="30"/>
-      <c r="BE16" s="31"/>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="31"/>
-      <c r="BH16" s="31"/>
-      <c r="BI16" s="31"/>
-      <c r="BJ16" s="31"/>
-      <c r="BK16" s="31"/>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="31"/>
-      <c r="BN16" s="31"/>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="31"/>
-      <c r="BQ16" s="31"/>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="31"/>
-      <c r="BT16" s="31"/>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="31"/>
-      <c r="BW16" s="31"/>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="31"/>
-      <c r="BZ16" s="31"/>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="31"/>
-      <c r="CC16" s="31"/>
-      <c r="CD16" s="31"/>
-      <c r="CE16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="34"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="34"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="34"/>
+      <c r="BM16" s="34"/>
+      <c r="BN16" s="34"/>
+      <c r="BO16" s="34"/>
+      <c r="BP16" s="34"/>
+      <c r="BQ16" s="34"/>
+      <c r="BR16" s="34"/>
+      <c r="BS16" s="34"/>
+      <c r="BT16" s="34"/>
+      <c r="BU16" s="34"/>
+      <c r="BV16" s="34"/>
+      <c r="BW16" s="34"/>
+      <c r="BX16" s="34"/>
+      <c r="BY16" s="34"/>
+      <c r="BZ16" s="34"/>
+      <c r="CA16" s="34"/>
+      <c r="CB16" s="34"/>
+      <c r="CC16" s="34"/>
+      <c r="CD16" s="34"/>
+      <c r="CE16" s="35"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="27" t="s">
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27" t="s">
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="27" t="s">
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AL19" s="27"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="27"/>
-      <c r="AR19" s="27"/>
-      <c r="AS19" s="27"/>
-      <c r="AT19" s="27"/>
-      <c r="AU19" s="27"/>
-      <c r="AV19" s="27"/>
-      <c r="AW19" s="27"/>
-      <c r="AX19" s="27"/>
-      <c r="AY19" s="27"/>
-      <c r="AZ19" s="27"/>
-      <c r="BA19" s="27"/>
-      <c r="BB19" s="27"/>
-      <c r="BC19" s="27"/>
-      <c r="BD19" s="36" t="s">
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BE19" s="37"/>
-      <c r="BF19" s="37"/>
-      <c r="BG19" s="37"/>
-      <c r="BH19" s="37"/>
-      <c r="BI19" s="37"/>
-      <c r="BJ19" s="37"/>
-      <c r="BK19" s="37"/>
-      <c r="BL19" s="37"/>
-      <c r="BM19" s="37"/>
-      <c r="BN19" s="37"/>
-      <c r="BO19" s="37"/>
-      <c r="BP19" s="37"/>
-      <c r="BQ19" s="37"/>
-      <c r="BR19" s="37"/>
-      <c r="BS19" s="37"/>
-      <c r="BT19" s="37"/>
-      <c r="BU19" s="37"/>
-      <c r="BV19" s="37"/>
-      <c r="BW19" s="37"/>
-      <c r="BX19" s="37"/>
-      <c r="BY19" s="37"/>
-      <c r="BZ19" s="37"/>
-      <c r="CA19" s="37"/>
-      <c r="CB19" s="37"/>
-      <c r="CC19" s="37"/>
-      <c r="CD19" s="37"/>
-      <c r="CE19" s="38"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="31"/>
+      <c r="BL19" s="31"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="31"/>
+      <c r="BO19" s="31"/>
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="31"/>
+      <c r="BU19" s="31"/>
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="31"/>
+      <c r="BX19" s="31"/>
+      <c r="BY19" s="31"/>
+      <c r="BZ19" s="31"/>
+      <c r="CA19" s="31"/>
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="31"/>
+      <c r="CD19" s="31"/>
+      <c r="CE19" s="32"/>
     </row>
     <row r="20" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="29" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29" t="s">
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
-      <c r="BB20" s="29"/>
-      <c r="BC20" s="29"/>
-      <c r="BD20" s="30"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="31"/>
-      <c r="BK20" s="31"/>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="31"/>
-      <c r="BN20" s="31"/>
-      <c r="BO20" s="31"/>
-      <c r="BP20" s="31"/>
-      <c r="BQ20" s="31"/>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="31"/>
-      <c r="BT20" s="31"/>
-      <c r="BU20" s="31"/>
-      <c r="BV20" s="31"/>
-      <c r="BW20" s="31"/>
-      <c r="BX20" s="31"/>
-      <c r="BY20" s="31"/>
-      <c r="BZ20" s="31"/>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="31"/>
-      <c r="CC20" s="31"/>
-      <c r="CD20" s="31"/>
-      <c r="CE20" s="32"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="33"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="34"/>
+      <c r="BJ20" s="34"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="34"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="34"/>
+      <c r="BP20" s="34"/>
+      <c r="BQ20" s="34"/>
+      <c r="BR20" s="34"/>
+      <c r="BS20" s="34"/>
+      <c r="BT20" s="34"/>
+      <c r="BU20" s="34"/>
+      <c r="BV20" s="34"/>
+      <c r="BW20" s="34"/>
+      <c r="BX20" s="34"/>
+      <c r="BY20" s="34"/>
+      <c r="BZ20" s="34"/>
+      <c r="CA20" s="34"/>
+      <c r="CB20" s="34"/>
+      <c r="CC20" s="34"/>
+      <c r="CD20" s="34"/>
+      <c r="CE20" s="35"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="29">
         <f xml:space="preserve"> $A20 + 1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="29"/>
-      <c r="AW21" s="29"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="29"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="31"/>
-      <c r="BK21" s="31"/>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="31"/>
-      <c r="BN21" s="31"/>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="31"/>
-      <c r="BQ21" s="31"/>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="31"/>
-      <c r="BT21" s="31"/>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="31"/>
-      <c r="BW21" s="31"/>
-      <c r="BX21" s="31"/>
-      <c r="BY21" s="31"/>
-      <c r="BZ21" s="31"/>
-      <c r="CA21" s="31"/>
-      <c r="CB21" s="31"/>
-      <c r="CC21" s="31"/>
-      <c r="CD21" s="31"/>
-      <c r="CE21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="33"/>
+      <c r="BE21" s="34"/>
+      <c r="BF21" s="34"/>
+      <c r="BG21" s="34"/>
+      <c r="BH21" s="34"/>
+      <c r="BI21" s="34"/>
+      <c r="BJ21" s="34"/>
+      <c r="BK21" s="34"/>
+      <c r="BL21" s="34"/>
+      <c r="BM21" s="34"/>
+      <c r="BN21" s="34"/>
+      <c r="BO21" s="34"/>
+      <c r="BP21" s="34"/>
+      <c r="BQ21" s="34"/>
+      <c r="BR21" s="34"/>
+      <c r="BS21" s="34"/>
+      <c r="BT21" s="34"/>
+      <c r="BU21" s="34"/>
+      <c r="BV21" s="34"/>
+      <c r="BW21" s="34"/>
+      <c r="BX21" s="34"/>
+      <c r="BY21" s="34"/>
+      <c r="BZ21" s="34"/>
+      <c r="CA21" s="34"/>
+      <c r="CB21" s="34"/>
+      <c r="CC21" s="34"/>
+      <c r="CD21" s="34"/>
+      <c r="CE21" s="35"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="A22" s="29">
         <f t="shared" ref="A22:A24" si="1" xml:space="preserve"> $A21 + 1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
-      <c r="BJ22" s="31"/>
-      <c r="BK22" s="31"/>
-      <c r="BL22" s="31"/>
-      <c r="BM22" s="31"/>
-      <c r="BN22" s="31"/>
-      <c r="BO22" s="31"/>
-      <c r="BP22" s="31"/>
-      <c r="BQ22" s="31"/>
-      <c r="BR22" s="31"/>
-      <c r="BS22" s="31"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="31"/>
-      <c r="BV22" s="31"/>
-      <c r="BW22" s="31"/>
-      <c r="BX22" s="31"/>
-      <c r="BY22" s="31"/>
-      <c r="BZ22" s="31"/>
-      <c r="CA22" s="31"/>
-      <c r="CB22" s="31"/>
-      <c r="CC22" s="31"/>
-      <c r="CD22" s="31"/>
-      <c r="CE22" s="32"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="27"/>
+      <c r="BD22" s="33"/>
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="34"/>
+      <c r="BH22" s="34"/>
+      <c r="BI22" s="34"/>
+      <c r="BJ22" s="34"/>
+      <c r="BK22" s="34"/>
+      <c r="BL22" s="34"/>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="34"/>
+      <c r="BO22" s="34"/>
+      <c r="BP22" s="34"/>
+      <c r="BQ22" s="34"/>
+      <c r="BR22" s="34"/>
+      <c r="BS22" s="34"/>
+      <c r="BT22" s="34"/>
+      <c r="BU22" s="34"/>
+      <c r="BV22" s="34"/>
+      <c r="BW22" s="34"/>
+      <c r="BX22" s="34"/>
+      <c r="BY22" s="34"/>
+      <c r="BZ22" s="34"/>
+      <c r="CA22" s="34"/>
+      <c r="CB22" s="34"/>
+      <c r="CC22" s="34"/>
+      <c r="CD22" s="34"/>
+      <c r="CE22" s="35"/>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="29"/>
-      <c r="AT23" s="29"/>
-      <c r="AU23" s="29"/>
-      <c r="AV23" s="29"/>
-      <c r="AW23" s="29"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
-      <c r="AZ23" s="29"/>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="29"/>
-      <c r="BC23" s="29"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="31"/>
-      <c r="BF23" s="31"/>
-      <c r="BG23" s="31"/>
-      <c r="BH23" s="31"/>
-      <c r="BI23" s="31"/>
-      <c r="BJ23" s="31"/>
-      <c r="BK23" s="31"/>
-      <c r="BL23" s="31"/>
-      <c r="BM23" s="31"/>
-      <c r="BN23" s="31"/>
-      <c r="BO23" s="31"/>
-      <c r="BP23" s="31"/>
-      <c r="BQ23" s="31"/>
-      <c r="BR23" s="31"/>
-      <c r="BS23" s="31"/>
-      <c r="BT23" s="31"/>
-      <c r="BU23" s="31"/>
-      <c r="BV23" s="31"/>
-      <c r="BW23" s="31"/>
-      <c r="BX23" s="31"/>
-      <c r="BY23" s="31"/>
-      <c r="BZ23" s="31"/>
-      <c r="CA23" s="31"/>
-      <c r="CB23" s="31"/>
-      <c r="CC23" s="31"/>
-      <c r="CD23" s="31"/>
-      <c r="CE23" s="32"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="33"/>
+      <c r="BE23" s="34"/>
+      <c r="BF23" s="34"/>
+      <c r="BG23" s="34"/>
+      <c r="BH23" s="34"/>
+      <c r="BI23" s="34"/>
+      <c r="BJ23" s="34"/>
+      <c r="BK23" s="34"/>
+      <c r="BL23" s="34"/>
+      <c r="BM23" s="34"/>
+      <c r="BN23" s="34"/>
+      <c r="BO23" s="34"/>
+      <c r="BP23" s="34"/>
+      <c r="BQ23" s="34"/>
+      <c r="BR23" s="34"/>
+      <c r="BS23" s="34"/>
+      <c r="BT23" s="34"/>
+      <c r="BU23" s="34"/>
+      <c r="BV23" s="34"/>
+      <c r="BW23" s="34"/>
+      <c r="BX23" s="34"/>
+      <c r="BY23" s="34"/>
+      <c r="BZ23" s="34"/>
+      <c r="CA23" s="34"/>
+      <c r="CB23" s="34"/>
+      <c r="CC23" s="34"/>
+      <c r="CD23" s="34"/>
+      <c r="CE23" s="35"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
+      <c r="A24" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="29"/>
-      <c r="BB24" s="29"/>
-      <c r="BC24" s="29"/>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
-      <c r="BI24" s="31"/>
-      <c r="BJ24" s="31"/>
-      <c r="BK24" s="31"/>
-      <c r="BL24" s="31"/>
-      <c r="BM24" s="31"/>
-      <c r="BN24" s="31"/>
-      <c r="BO24" s="31"/>
-      <c r="BP24" s="31"/>
-      <c r="BQ24" s="31"/>
-      <c r="BR24" s="31"/>
-      <c r="BS24" s="31"/>
-      <c r="BT24" s="31"/>
-      <c r="BU24" s="31"/>
-      <c r="BV24" s="31"/>
-      <c r="BW24" s="31"/>
-      <c r="BX24" s="31"/>
-      <c r="BY24" s="31"/>
-      <c r="BZ24" s="31"/>
-      <c r="CA24" s="31"/>
-      <c r="CB24" s="31"/>
-      <c r="CC24" s="31"/>
-      <c r="CD24" s="31"/>
-      <c r="CE24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="27"/>
+      <c r="AW24" s="27"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="27"/>
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="34"/>
+      <c r="BF24" s="34"/>
+      <c r="BG24" s="34"/>
+      <c r="BH24" s="34"/>
+      <c r="BI24" s="34"/>
+      <c r="BJ24" s="34"/>
+      <c r="BK24" s="34"/>
+      <c r="BL24" s="34"/>
+      <c r="BM24" s="34"/>
+      <c r="BN24" s="34"/>
+      <c r="BO24" s="34"/>
+      <c r="BP24" s="34"/>
+      <c r="BQ24" s="34"/>
+      <c r="BR24" s="34"/>
+      <c r="BS24" s="34"/>
+      <c r="BT24" s="34"/>
+      <c r="BU24" s="34"/>
+      <c r="BV24" s="34"/>
+      <c r="BW24" s="34"/>
+      <c r="BX24" s="34"/>
+      <c r="BY24" s="34"/>
+      <c r="BZ24" s="34"/>
+      <c r="CA24" s="34"/>
+      <c r="CB24" s="34"/>
+      <c r="CC24" s="34"/>
+      <c r="CD24" s="34"/>
+      <c r="CE24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="AK19:BC19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="AK24:BC24"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD22:CE22"/>
+    <mergeCell ref="BD23:CE23"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="M23:X23"/>
+    <mergeCell ref="Y23:AJ23"/>
+    <mergeCell ref="AK23:BC23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="M22:X22"/>
+    <mergeCell ref="Y22:AJ22"/>
+    <mergeCell ref="AK22:BC22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:L23"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="M21:X21"/>
     <mergeCell ref="Y21:AJ21"/>
@@ -6832,50 +6829,54 @@
     <mergeCell ref="AE16:AM16"/>
     <mergeCell ref="M16:U16"/>
     <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK23:BC23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="M22:X22"/>
-    <mergeCell ref="Y22:AJ22"/>
-    <mergeCell ref="AK22:BC22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="AK24:BC24"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD22:CE22"/>
-    <mergeCell ref="BD23:CE23"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="M23:X23"/>
-    <mergeCell ref="Y23:AJ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="AK19:BC19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6892,69 +6893,69 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
     </row>
     <row r="3" spans="1:55" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39">
@@ -6995,31 +6996,31 @@
       <c r="AD3" s="40"/>
       <c r="AE3" s="40"/>
       <c r="AF3" s="40"/>
-      <c r="AG3" s="42" t="s">
+      <c r="AG3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="41"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="41"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="39">
@@ -7057,29 +7058,29 @@
       <c r="AD4" s="40"/>
       <c r="AE4" s="40"/>
       <c r="AF4" s="40"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
@@ -7117,29 +7118,29 @@
       <c r="AD5" s="40"/>
       <c r="AE5" s="40"/>
       <c r="AF5" s="40"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
@@ -7177,29 +7178,29 @@
       <c r="AD6" s="40"/>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="41"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="42"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="42"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="39">
@@ -7237,40 +7238,32 @@
       <c r="AD7" s="40"/>
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AF2"/>
-    <mergeCell ref="AG2:BC2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AF3"/>
-    <mergeCell ref="AG3:BC3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AF4"/>
@@ -7287,6 +7280,14 @@
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AF6"/>
     <mergeCell ref="AG6:BC6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AF2"/>
+    <mergeCell ref="AG2:BC2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AF3"/>
+    <mergeCell ref="AG3:BC3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7295,6 +7296,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD306F0-62DF-4C47-ABB5-E55E667C51C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_0テンプレート.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_0テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA04C77D-AB18-4CF1-B903-98BD880E4E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D63915-908D-441A-8F65-71301C28C826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10970" windowWidth="38620" windowHeight="21820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13224" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="クラス" sheetId="7" r:id="rId3"/>
     <sheet name="テーブル" sheetId="8" r:id="rId4"/>
     <sheet name="フロー" sheetId="9" r:id="rId5"/>
-    <sheet name="×" sheetId="6" r:id="rId6"/>
+    <sheet name="構造体" sheetId="10" r:id="rId6"/>
+    <sheet name="×" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>作成日</t>
   </si>
@@ -275,6 +276,30 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>構造体名</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -567,22 +592,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -602,6 +618,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -609,10 +634,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4402,574 +4427,552 @@
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28" t="s">
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28" t="s">
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>1</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f xml:space="preserve"> $A50 + 1</f>
         <v>2</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <f t="shared" ref="A52:A57" si="0" xml:space="preserve"> $A51 + 1</f>
         <v>3</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="27"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="27"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-      <c r="AF54" s="27"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
-      <c r="AF55" s="27"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="27"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="27"/>
-      <c r="AF57" s="27"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="A42:AF46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="U49:AF49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="U50:AF50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:AF51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
     <mergeCell ref="B54:G54"/>
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:T54"/>
@@ -4986,6 +4989,28 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:T56"/>
     <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="U50:AF50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:AF51"/>
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="A42:AF46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="U49:AF49"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5003,122 +5028,122 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
@@ -5178,376 +5203,376 @@
       <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="28" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="30" t="s">
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BE5" s="31"/>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="31"/>
-      <c r="BK5" s="31"/>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31"/>
-      <c r="BN5" s="31"/>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="31"/>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="31"/>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="31"/>
-      <c r="BW5" s="31"/>
-      <c r="BX5" s="31"/>
-      <c r="BY5" s="31"/>
-      <c r="BZ5" s="31"/>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="31"/>
-      <c r="CC5" s="31"/>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="32"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="38"/>
     </row>
     <row r="6" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="27"/>
-      <c r="AR6" s="27"/>
-      <c r="AS6" s="27"/>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
-      <c r="AX6" s="27"/>
-      <c r="AY6" s="27"/>
-      <c r="AZ6" s="27"/>
-      <c r="BA6" s="27"/>
-      <c r="BB6" s="27"/>
-      <c r="BC6" s="27"/>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="34"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="34"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="34"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="34"/>
-      <c r="BN6" s="34"/>
-      <c r="BO6" s="34"/>
-      <c r="BP6" s="34"/>
-      <c r="BQ6" s="34"/>
-      <c r="BR6" s="34"/>
-      <c r="BS6" s="34"/>
-      <c r="BT6" s="34"/>
-      <c r="BU6" s="34"/>
-      <c r="BV6" s="34"/>
-      <c r="BW6" s="34"/>
-      <c r="BX6" s="34"/>
-      <c r="BY6" s="34"/>
-      <c r="BZ6" s="34"/>
-      <c r="CA6" s="34"/>
-      <c r="CB6" s="34"/>
-      <c r="CC6" s="34"/>
-      <c r="CD6" s="34"/>
-      <c r="CE6" s="35"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="29"/>
+      <c r="AX6" s="29"/>
+      <c r="AY6" s="29"/>
+      <c r="AZ6" s="29"/>
+      <c r="BA6" s="29"/>
+      <c r="BB6" s="29"/>
+      <c r="BC6" s="29"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="31"/>
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="31"/>
+      <c r="BR6" s="31"/>
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BW6" s="31"/>
+      <c r="BX6" s="31"/>
+      <c r="BY6" s="31"/>
+      <c r="BZ6" s="31"/>
+      <c r="CA6" s="31"/>
+      <c r="CB6" s="31"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
+      <c r="CE6" s="32"/>
     </row>
     <row r="7" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <f xml:space="preserve"> $A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="27"/>
-      <c r="BC7" s="27"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="34"/>
-      <c r="BL7" s="34"/>
-      <c r="BM7" s="34"/>
-      <c r="BN7" s="34"/>
-      <c r="BO7" s="34"/>
-      <c r="BP7" s="34"/>
-      <c r="BQ7" s="34"/>
-      <c r="BR7" s="34"/>
-      <c r="BS7" s="34"/>
-      <c r="BT7" s="34"/>
-      <c r="BU7" s="34"/>
-      <c r="BV7" s="34"/>
-      <c r="BW7" s="34"/>
-      <c r="BX7" s="34"/>
-      <c r="BY7" s="34"/>
-      <c r="BZ7" s="34"/>
-      <c r="CA7" s="34"/>
-      <c r="CB7" s="34"/>
-      <c r="CC7" s="34"/>
-      <c r="CD7" s="34"/>
-      <c r="CE7" s="35"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29"/>
+      <c r="BC7" s="29"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="31"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="31"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="31"/>
+      <c r="BO7" s="31"/>
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="31"/>
+      <c r="BR7" s="31"/>
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="31"/>
+      <c r="BU7" s="31"/>
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="31"/>
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="31"/>
+      <c r="CD7" s="31"/>
+      <c r="CE7" s="32"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <f xml:space="preserve"> $A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="27"/>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="34"/>
-      <c r="BH8" s="34"/>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="34"/>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="34"/>
-      <c r="BN8" s="34"/>
-      <c r="BO8" s="34"/>
-      <c r="BP8" s="34"/>
-      <c r="BQ8" s="34"/>
-      <c r="BR8" s="34"/>
-      <c r="BS8" s="34"/>
-      <c r="BT8" s="34"/>
-      <c r="BU8" s="34"/>
-      <c r="BV8" s="34"/>
-      <c r="BW8" s="34"/>
-      <c r="BX8" s="34"/>
-      <c r="BY8" s="34"/>
-      <c r="BZ8" s="34"/>
-      <c r="CA8" s="34"/>
-      <c r="CB8" s="34"/>
-      <c r="CC8" s="34"/>
-      <c r="CD8" s="34"/>
-      <c r="CE8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="31"/>
+      <c r="BF8" s="31"/>
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="31"/>
+      <c r="BI8" s="31"/>
+      <c r="BJ8" s="31"/>
+      <c r="BK8" s="31"/>
+      <c r="BL8" s="31"/>
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="31"/>
+      <c r="BO8" s="31"/>
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="31"/>
+      <c r="BR8" s="31"/>
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="31"/>
+      <c r="BU8" s="31"/>
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="31"/>
+      <c r="BX8" s="31"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="31"/>
+      <c r="CA8" s="31"/>
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="31"/>
+      <c r="CD8" s="31"/>
+      <c r="CE8" s="32"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -5664,1114 +5689,1184 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="28" t="s">
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28" t="s">
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28" t="s">
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="30" t="s">
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="27"/>
+      <c r="BD11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="31"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="31"/>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="31"/>
-      <c r="BN11" s="31"/>
-      <c r="BO11" s="31"/>
-      <c r="BP11" s="31"/>
-      <c r="BQ11" s="31"/>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="31"/>
-      <c r="BT11" s="31"/>
-      <c r="BU11" s="31"/>
-      <c r="BV11" s="31"/>
-      <c r="BW11" s="31"/>
-      <c r="BX11" s="31"/>
-      <c r="BY11" s="31"/>
-      <c r="BZ11" s="31"/>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="31"/>
-      <c r="CC11" s="31"/>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="32"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="37"/>
+      <c r="BN11" s="37"/>
+      <c r="BO11" s="37"/>
+      <c r="BP11" s="37"/>
+      <c r="BQ11" s="37"/>
+      <c r="BR11" s="37"/>
+      <c r="BS11" s="37"/>
+      <c r="BT11" s="37"/>
+      <c r="BU11" s="37"/>
+      <c r="BV11" s="37"/>
+      <c r="BW11" s="37"/>
+      <c r="BX11" s="37"/>
+      <c r="BY11" s="37"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="37"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="37"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="38"/>
     </row>
     <row r="12" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>1</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="27" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27" t="s">
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="27"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="34"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="34"/>
-      <c r="BQ12" s="34"/>
-      <c r="BR12" s="34"/>
-      <c r="BS12" s="34"/>
-      <c r="BT12" s="34"/>
-      <c r="BU12" s="34"/>
-      <c r="BV12" s="34"/>
-      <c r="BW12" s="34"/>
-      <c r="BX12" s="34"/>
-      <c r="BY12" s="34"/>
-      <c r="BZ12" s="34"/>
-      <c r="CA12" s="34"/>
-      <c r="CB12" s="34"/>
-      <c r="CC12" s="34"/>
-      <c r="CD12" s="34"/>
-      <c r="CE12" s="35"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="31"/>
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="31"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="32"/>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="34"/>
-      <c r="BI13" s="34"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="34"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="34"/>
-      <c r="BN13" s="34"/>
-      <c r="BO13" s="34"/>
-      <c r="BP13" s="34"/>
-      <c r="BQ13" s="34"/>
-      <c r="BR13" s="34"/>
-      <c r="BS13" s="34"/>
-      <c r="BT13" s="34"/>
-      <c r="BU13" s="34"/>
-      <c r="BV13" s="34"/>
-      <c r="BW13" s="34"/>
-      <c r="BX13" s="34"/>
-      <c r="BY13" s="34"/>
-      <c r="BZ13" s="34"/>
-      <c r="CA13" s="34"/>
-      <c r="CB13" s="34"/>
-      <c r="CC13" s="34"/>
-      <c r="CD13" s="34"/>
-      <c r="CE13" s="35"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
+      <c r="BL13" s="31"/>
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="31"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="31"/>
+      <c r="CA13" s="31"/>
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="31"/>
+      <c r="CD13" s="31"/>
+      <c r="CE13" s="32"/>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <f t="shared" ref="A14:A16" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="27"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="27"/>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="27"/>
-      <c r="AY14" s="27"/>
-      <c r="AZ14" s="27"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="27"/>
-      <c r="BC14" s="27"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
-      <c r="BR14" s="34"/>
-      <c r="BS14" s="34"/>
-      <c r="BT14" s="34"/>
-      <c r="BU14" s="34"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
-      <c r="BY14" s="34"/>
-      <c r="BZ14" s="34"/>
-      <c r="CA14" s="34"/>
-      <c r="CB14" s="34"/>
-      <c r="CC14" s="34"/>
-      <c r="CD14" s="34"/>
-      <c r="CE14" s="35"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
+      <c r="BI14" s="31"/>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="31"/>
+      <c r="BL14" s="31"/>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="31"/>
+      <c r="BO14" s="31"/>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="31"/>
+      <c r="BU14" s="31"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="31"/>
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="31"/>
+      <c r="CD14" s="31"/>
+      <c r="CE14" s="32"/>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="34"/>
-      <c r="BO15" s="34"/>
-      <c r="BP15" s="34"/>
-      <c r="BQ15" s="34"/>
-      <c r="BR15" s="34"/>
-      <c r="BS15" s="34"/>
-      <c r="BT15" s="34"/>
-      <c r="BU15" s="34"/>
-      <c r="BV15" s="34"/>
-      <c r="BW15" s="34"/>
-      <c r="BX15" s="34"/>
-      <c r="BY15" s="34"/>
-      <c r="BZ15" s="34"/>
-      <c r="CA15" s="34"/>
-      <c r="CB15" s="34"/>
-      <c r="CC15" s="34"/>
-      <c r="CD15" s="34"/>
-      <c r="CE15" s="35"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="29"/>
+      <c r="BB15" s="29"/>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="31"/>
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="31"/>
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="32"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="34"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="34"/>
-      <c r="BR16" s="34"/>
-      <c r="BS16" s="34"/>
-      <c r="BT16" s="34"/>
-      <c r="BU16" s="34"/>
-      <c r="BV16" s="34"/>
-      <c r="BW16" s="34"/>
-      <c r="BX16" s="34"/>
-      <c r="BY16" s="34"/>
-      <c r="BZ16" s="34"/>
-      <c r="CA16" s="34"/>
-      <c r="CB16" s="34"/>
-      <c r="CC16" s="34"/>
-      <c r="CD16" s="34"/>
-      <c r="CE16" s="35"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+      <c r="BB16" s="29"/>
+      <c r="BC16" s="29"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="31"/>
+      <c r="BF16" s="31"/>
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="31"/>
+      <c r="BI16" s="31"/>
+      <c r="BJ16" s="31"/>
+      <c r="BK16" s="31"/>
+      <c r="BL16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="31"/>
+      <c r="BO16" s="31"/>
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="31"/>
+      <c r="BU16" s="31"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
+      <c r="CA16" s="31"/>
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="31"/>
+      <c r="CD16" s="31"/>
+      <c r="CE16" s="32"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="30" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="28" t="s">
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28" t="s">
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="30" t="s">
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="31"/>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="31"/>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="31"/>
-      <c r="BQ19" s="31"/>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="31"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="31"/>
-      <c r="BW19" s="31"/>
-      <c r="BX19" s="31"/>
-      <c r="BY19" s="31"/>
-      <c r="BZ19" s="31"/>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="31"/>
-      <c r="CC19" s="31"/>
-      <c r="CD19" s="31"/>
-      <c r="CE19" s="32"/>
+      <c r="BE19" s="37"/>
+      <c r="BF19" s="37"/>
+      <c r="BG19" s="37"/>
+      <c r="BH19" s="37"/>
+      <c r="BI19" s="37"/>
+      <c r="BJ19" s="37"/>
+      <c r="BK19" s="37"/>
+      <c r="BL19" s="37"/>
+      <c r="BM19" s="37"/>
+      <c r="BN19" s="37"/>
+      <c r="BO19" s="37"/>
+      <c r="BP19" s="37"/>
+      <c r="BQ19" s="37"/>
+      <c r="BR19" s="37"/>
+      <c r="BS19" s="37"/>
+      <c r="BT19" s="37"/>
+      <c r="BU19" s="37"/>
+      <c r="BV19" s="37"/>
+      <c r="BW19" s="37"/>
+      <c r="BX19" s="37"/>
+      <c r="BY19" s="37"/>
+      <c r="BZ19" s="37"/>
+      <c r="CA19" s="37"/>
+      <c r="CB19" s="37"/>
+      <c r="CC19" s="37"/>
+      <c r="CD19" s="37"/>
+      <c r="CE19" s="38"/>
     </row>
     <row r="20" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>1</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="33" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="27" t="s">
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27" t="s">
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27" t="s">
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="27"/>
-      <c r="AS20" s="27"/>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="27"/>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="27"/>
-      <c r="AY20" s="27"/>
-      <c r="AZ20" s="27"/>
-      <c r="BA20" s="27"/>
-      <c r="BB20" s="27"/>
-      <c r="BC20" s="27"/>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="34"/>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="34"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="34"/>
-      <c r="BR20" s="34"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="34"/>
-      <c r="BU20" s="34"/>
-      <c r="BV20" s="34"/>
-      <c r="BW20" s="34"/>
-      <c r="BX20" s="34"/>
-      <c r="BY20" s="34"/>
-      <c r="BZ20" s="34"/>
-      <c r="CA20" s="34"/>
-      <c r="CB20" s="34"/>
-      <c r="CC20" s="34"/>
-      <c r="CD20" s="34"/>
-      <c r="CE20" s="35"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="30"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="31"/>
+      <c r="BL20" s="31"/>
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="31"/>
+      <c r="BO20" s="31"/>
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="31"/>
+      <c r="BR20" s="31"/>
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="31"/>
+      <c r="BU20" s="31"/>
+      <c r="BV20" s="31"/>
+      <c r="BW20" s="31"/>
+      <c r="BX20" s="31"/>
+      <c r="BY20" s="31"/>
+      <c r="BZ20" s="31"/>
+      <c r="CA20" s="31"/>
+      <c r="CB20" s="31"/>
+      <c r="CC20" s="31"/>
+      <c r="CD20" s="31"/>
+      <c r="CE20" s="32"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <f xml:space="preserve"> $A20 + 1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="27"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="27"/>
-      <c r="BC21" s="27"/>
-      <c r="BD21" s="33"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="34"/>
-      <c r="BP21" s="34"/>
-      <c r="BQ21" s="34"/>
-      <c r="BR21" s="34"/>
-      <c r="BS21" s="34"/>
-      <c r="BT21" s="34"/>
-      <c r="BU21" s="34"/>
-      <c r="BV21" s="34"/>
-      <c r="BW21" s="34"/>
-      <c r="BX21" s="34"/>
-      <c r="BY21" s="34"/>
-      <c r="BZ21" s="34"/>
-      <c r="CA21" s="34"/>
-      <c r="CB21" s="34"/>
-      <c r="CC21" s="34"/>
-      <c r="CD21" s="34"/>
-      <c r="CE21" s="35"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="31"/>
+      <c r="BL21" s="31"/>
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="31"/>
+      <c r="BO21" s="31"/>
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="31"/>
+      <c r="BR21" s="31"/>
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="31"/>
+      <c r="BU21" s="31"/>
+      <c r="BV21" s="31"/>
+      <c r="BW21" s="31"/>
+      <c r="BX21" s="31"/>
+      <c r="BY21" s="31"/>
+      <c r="BZ21" s="31"/>
+      <c r="CA21" s="31"/>
+      <c r="CB21" s="31"/>
+      <c r="CC21" s="31"/>
+      <c r="CD21" s="31"/>
+      <c r="CE21" s="32"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <f t="shared" ref="A22:A24" si="1" xml:space="preserve"> $A21 + 1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="27"/>
-      <c r="AQ22" s="27"/>
-      <c r="AR22" s="27"/>
-      <c r="AS22" s="27"/>
-      <c r="AT22" s="27"/>
-      <c r="AU22" s="27"/>
-      <c r="AV22" s="27"/>
-      <c r="AW22" s="27"/>
-      <c r="AX22" s="27"/>
-      <c r="AY22" s="27"/>
-      <c r="AZ22" s="27"/>
-      <c r="BA22" s="27"/>
-      <c r="BB22" s="27"/>
-      <c r="BC22" s="27"/>
-      <c r="BD22" s="33"/>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="34"/>
-      <c r="BG22" s="34"/>
-      <c r="BH22" s="34"/>
-      <c r="BI22" s="34"/>
-      <c r="BJ22" s="34"/>
-      <c r="BK22" s="34"/>
-      <c r="BL22" s="34"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="34"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="34"/>
-      <c r="BR22" s="34"/>
-      <c r="BS22" s="34"/>
-      <c r="BT22" s="34"/>
-      <c r="BU22" s="34"/>
-      <c r="BV22" s="34"/>
-      <c r="BW22" s="34"/>
-      <c r="BX22" s="34"/>
-      <c r="BY22" s="34"/>
-      <c r="BZ22" s="34"/>
-      <c r="CA22" s="34"/>
-      <c r="CB22" s="34"/>
-      <c r="CC22" s="34"/>
-      <c r="CD22" s="34"/>
-      <c r="CE22" s="35"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
+      <c r="BB22" s="29"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="31"/>
+      <c r="BL22" s="31"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="31"/>
+      <c r="BP22" s="31"/>
+      <c r="BQ22" s="31"/>
+      <c r="BR22" s="31"/>
+      <c r="BS22" s="31"/>
+      <c r="BT22" s="31"/>
+      <c r="BU22" s="31"/>
+      <c r="BV22" s="31"/>
+      <c r="BW22" s="31"/>
+      <c r="BX22" s="31"/>
+      <c r="BY22" s="31"/>
+      <c r="BZ22" s="31"/>
+      <c r="CA22" s="31"/>
+      <c r="CB22" s="31"/>
+      <c r="CC22" s="31"/>
+      <c r="CD22" s="31"/>
+      <c r="CE22" s="32"/>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="27"/>
-      <c r="BB23" s="27"/>
-      <c r="BC23" s="27"/>
-      <c r="BD23" s="33"/>
-      <c r="BE23" s="34"/>
-      <c r="BF23" s="34"/>
-      <c r="BG23" s="34"/>
-      <c r="BH23" s="34"/>
-      <c r="BI23" s="34"/>
-      <c r="BJ23" s="34"/>
-      <c r="BK23" s="34"/>
-      <c r="BL23" s="34"/>
-      <c r="BM23" s="34"/>
-      <c r="BN23" s="34"/>
-      <c r="BO23" s="34"/>
-      <c r="BP23" s="34"/>
-      <c r="BQ23" s="34"/>
-      <c r="BR23" s="34"/>
-      <c r="BS23" s="34"/>
-      <c r="BT23" s="34"/>
-      <c r="BU23" s="34"/>
-      <c r="BV23" s="34"/>
-      <c r="BW23" s="34"/>
-      <c r="BX23" s="34"/>
-      <c r="BY23" s="34"/>
-      <c r="BZ23" s="34"/>
-      <c r="CA23" s="34"/>
-      <c r="CB23" s="34"/>
-      <c r="CC23" s="34"/>
-      <c r="CD23" s="34"/>
-      <c r="CE23" s="35"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="29"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="31"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="31"/>
+      <c r="BK23" s="31"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="31"/>
+      <c r="BR23" s="31"/>
+      <c r="BS23" s="31"/>
+      <c r="BT23" s="31"/>
+      <c r="BU23" s="31"/>
+      <c r="BV23" s="31"/>
+      <c r="BW23" s="31"/>
+      <c r="BX23" s="31"/>
+      <c r="BY23" s="31"/>
+      <c r="BZ23" s="31"/>
+      <c r="CA23" s="31"/>
+      <c r="CB23" s="31"/>
+      <c r="CC23" s="31"/>
+      <c r="CD23" s="31"/>
+      <c r="CE23" s="32"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="27"/>
-      <c r="AS24" s="27"/>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="27"/>
-      <c r="AV24" s="27"/>
-      <c r="AW24" s="27"/>
-      <c r="AX24" s="27"/>
-      <c r="AY24" s="27"/>
-      <c r="AZ24" s="27"/>
-      <c r="BA24" s="27"/>
-      <c r="BB24" s="27"/>
-      <c r="BC24" s="27"/>
-      <c r="BD24" s="33"/>
-      <c r="BE24" s="34"/>
-      <c r="BF24" s="34"/>
-      <c r="BG24" s="34"/>
-      <c r="BH24" s="34"/>
-      <c r="BI24" s="34"/>
-      <c r="BJ24" s="34"/>
-      <c r="BK24" s="34"/>
-      <c r="BL24" s="34"/>
-      <c r="BM24" s="34"/>
-      <c r="BN24" s="34"/>
-      <c r="BO24" s="34"/>
-      <c r="BP24" s="34"/>
-      <c r="BQ24" s="34"/>
-      <c r="BR24" s="34"/>
-      <c r="BS24" s="34"/>
-      <c r="BT24" s="34"/>
-      <c r="BU24" s="34"/>
-      <c r="BV24" s="34"/>
-      <c r="BW24" s="34"/>
-      <c r="BX24" s="34"/>
-      <c r="BY24" s="34"/>
-      <c r="BZ24" s="34"/>
-      <c r="CA24" s="34"/>
-      <c r="CB24" s="34"/>
-      <c r="CC24" s="34"/>
-      <c r="CD24" s="34"/>
-      <c r="CE24" s="35"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
+      <c r="BI24" s="31"/>
+      <c r="BJ24" s="31"/>
+      <c r="BK24" s="31"/>
+      <c r="BL24" s="31"/>
+      <c r="BM24" s="31"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="31"/>
+      <c r="BP24" s="31"/>
+      <c r="BQ24" s="31"/>
+      <c r="BR24" s="31"/>
+      <c r="BS24" s="31"/>
+      <c r="BT24" s="31"/>
+      <c r="BU24" s="31"/>
+      <c r="BV24" s="31"/>
+      <c r="BW24" s="31"/>
+      <c r="BX24" s="31"/>
+      <c r="BY24" s="31"/>
+      <c r="BZ24" s="31"/>
+      <c r="CA24" s="31"/>
+      <c r="CB24" s="31"/>
+      <c r="CC24" s="31"/>
+      <c r="CD24" s="31"/>
+      <c r="CE24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="AK19:BC19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="M21:X21"/>
+    <mergeCell ref="Y21:AJ21"/>
+    <mergeCell ref="AK21:BC21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="M20:X20"/>
+    <mergeCell ref="Y20:AJ20"/>
+    <mergeCell ref="AK20:BC20"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M19:X19"/>
+    <mergeCell ref="Y19:AJ19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AK23:BC23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="M22:X22"/>
+    <mergeCell ref="Y22:AJ22"/>
+    <mergeCell ref="AK22:BC22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:L23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="M24:X24"/>
     <mergeCell ref="Y24:AJ24"/>
@@ -6796,87 +6891,17 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="M23:X23"/>
     <mergeCell ref="Y23:AJ23"/>
-    <mergeCell ref="AK23:BC23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="M22:X22"/>
-    <mergeCell ref="Y22:AJ22"/>
-    <mergeCell ref="AK22:BC22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="M21:X21"/>
-    <mergeCell ref="Y21:AJ21"/>
-    <mergeCell ref="AK21:BC21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="M20:X20"/>
-    <mergeCell ref="Y20:AJ20"/>
-    <mergeCell ref="AK20:BC20"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="M19:X19"/>
-    <mergeCell ref="Y19:AJ19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK19:BC19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6893,69 +6918,69 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
     </row>
     <row r="3" spans="1:55" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39">
@@ -6996,31 +7021,31 @@
       <c r="AD3" s="40"/>
       <c r="AE3" s="40"/>
       <c r="AF3" s="40"/>
-      <c r="AG3" s="41" t="s">
+      <c r="AG3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="39">
@@ -7058,29 +7083,29 @@
       <c r="AD4" s="40"/>
       <c r="AE4" s="40"/>
       <c r="AF4" s="40"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
@@ -7118,29 +7143,29 @@
       <c r="AD5" s="40"/>
       <c r="AE5" s="40"/>
       <c r="AF5" s="40"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
@@ -7178,29 +7203,29 @@
       <c r="AD6" s="40"/>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="42"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="39">
@@ -7238,32 +7263,40 @@
       <c r="AD7" s="40"/>
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="41"/>
+      <c r="AW7" s="41"/>
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AF2"/>
+    <mergeCell ref="AG2:BC2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AF3"/>
+    <mergeCell ref="AG3:BC3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AF4"/>
@@ -7280,14 +7313,6 @@
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AF6"/>
     <mergeCell ref="AG6:BC6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AF2"/>
-    <mergeCell ref="AG2:BC2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AF3"/>
-    <mergeCell ref="AG3:BC3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7310,6 +7335,593 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00BFEF-4139-4448-B96C-465053393676}">
+  <dimension ref="A2:BC21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>1</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <f>A7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <f t="shared" ref="A9:A19" si="0">A8 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <f t="shared" ref="A20:A21" si="1">A19 + 1</f>
+        <v>14</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:T6"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_0テンプレート.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_0テンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D63915-908D-441A-8F65-71301C28C826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB4A942-0C75-4C66-8000-BB6EEFB8EE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13224" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="クラス" sheetId="7" r:id="rId3"/>
     <sheet name="テーブル" sheetId="8" r:id="rId4"/>
     <sheet name="フロー" sheetId="9" r:id="rId5"/>
-    <sheet name="構造体" sheetId="10" r:id="rId6"/>
-    <sheet name="×" sheetId="6" r:id="rId7"/>
+    <sheet name="×" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>作成日</t>
   </si>
@@ -183,14 +182,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>テーブル { カラム }</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>TABLE { COLUMN1, COLUMN2 }</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>SELECT COLUMN1,COLUMN2
 FROM TABLE
 WHERE COLUMN3 = PARAM</t>
@@ -276,30 +267,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>構造体名</t>
-    <rPh sb="0" eb="3">
-      <t>コウゾウタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>データ型</t>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>変数名</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンスウメイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -753,8 +720,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="165460"/>
-          <a:ext cx="8896350" cy="6121040"/>
+          <a:off x="0" y="168000"/>
+          <a:ext cx="8976360" cy="6217560"/>
           <a:chOff x="0" y="168000"/>
           <a:chExt cx="8976360" cy="6217560"/>
         </a:xfrm>
@@ -2124,7 +2091,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -4637,7 +4604,7 @@
         <v>11</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4645,13 +4612,13 @@
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
       <c r="L49" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
@@ -4662,7 +4629,7 @@
       <c r="S49" s="27"/>
       <c r="T49" s="27"/>
       <c r="U49" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V49" s="27"/>
       <c r="W49" s="27"/>
@@ -5208,13 +5175,13 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="38"/>
       <c r="G5" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
@@ -5269,7 +5236,7 @@
       <c r="BB5" s="27"/>
       <c r="BC5" s="27"/>
       <c r="BD5" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BE5" s="37"/>
       <c r="BF5" s="37"/>
@@ -5305,13 +5272,13 @@
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -5399,13 +5366,13 @@
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="32"/>
       <c r="G7" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -5694,13 +5661,13 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="38"/>
       <c r="G11" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
@@ -5759,7 +5726,7 @@
       <c r="BB11" s="27"/>
       <c r="BC11" s="27"/>
       <c r="BD11" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BE11" s="37"/>
       <c r="BF11" s="37"/>
@@ -5795,13 +5762,13 @@
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
       <c r="G12" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -6242,13 +6209,13 @@
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -6305,7 +6272,7 @@
       <c r="BB19" s="27"/>
       <c r="BC19" s="27"/>
       <c r="BD19" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BE19" s="37"/>
       <c r="BF19" s="37"/>
@@ -6341,13 +6308,13 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="32"/>
       <c r="G20" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -6911,13 +6878,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E62B2D8-9038-4DC1-A756-35094BBABB32}">
-  <dimension ref="A2:BC7"/>
+  <dimension ref="A2:AI7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
@@ -6935,7 +6902,7 @@
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -6956,33 +6923,11 @@
       <c r="AD2" s="27"/>
       <c r="AE2" s="27"/>
       <c r="AF2" s="27"/>
-      <c r="AG2" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="AG2" s="27"/>
       <c r="AH2" s="27"/>
       <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-    </row>
-    <row r="3" spans="1:55" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39">
         <v>1</v>
       </c>
@@ -6999,55 +6944,33 @@
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
-      <c r="M3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="42" t="s">
-        <v>25</v>
-      </c>
+      <c r="M3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
       <c r="AH3" s="42"/>
       <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="39">
         <f xml:space="preserve"> $A3 + 1</f>
         <v>2</v>
@@ -7063,51 +6986,31 @@
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
       <c r="AG4" s="41"/>
       <c r="AH4" s="41"/>
       <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <f t="shared" ref="A5:A7" si="0" xml:space="preserve"> $A4 + 1</f>
         <v>3</v>
@@ -7123,51 +7026,31 @@
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
       <c r="AG5" s="41"/>
       <c r="AH5" s="41"/>
       <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7183,51 +7066,31 @@
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
       <c r="AG6" s="41"/>
       <c r="AH6" s="41"/>
       <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="41"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7243,76 +7106,50 @@
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
       <c r="AG7" s="41"/>
       <c r="AH7" s="41"/>
       <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="18">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AF2"/>
-    <mergeCell ref="AG2:BC2"/>
+    <mergeCell ref="M2:AI2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AF3"/>
-    <mergeCell ref="AG3:BC3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:AF4"/>
-    <mergeCell ref="AG4:BC4"/>
+    <mergeCell ref="M4:AI4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:AF7"/>
-    <mergeCell ref="AG7:BC7"/>
+    <mergeCell ref="M7:AI7"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:AF5"/>
-    <mergeCell ref="AG5:BC5"/>
+    <mergeCell ref="M5:AI5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:AF6"/>
-    <mergeCell ref="AG6:BC6"/>
+    <mergeCell ref="M6:AI6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7335,593 +7172,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00BFEF-4139-4448-B96C-465053393676}">
-  <dimension ref="A2:BC21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
-        <v>1</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
-        <f>A7 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
-        <f t="shared" ref="A9:A19" si="0">A8 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
-        <f t="shared" ref="A20:A21" si="1">A19 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:T6"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
